--- a/rates_of_return.xlsx
+++ b/rates_of_return.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Downloads\Temp data folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894891F1-ECE4-47BC-8D74-43A046E26C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E96D43A-ABE1-4BAD-934A-547608E38E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,25 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>monthly_ror</t>
+    <t>monthly_rate</t>
   </si>
 </sst>
 </file>
